--- a/残高試算表.xlsx
+++ b/残高試算表.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,83 +582,83 @@
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>前受金</t>
+          <t>++ 資産計 ++</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5000</v>
+        <v>2910122</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5000</v>
+        <v>78000</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0</v>
+        <v>351100</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>2637022</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>会費収入</t>
+          <t>前受金</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>23000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>入会金収入</t>
+          <t>++ 負債計 ++</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>預貯金利子</t>
+          <t>** 純資産 **</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0</v>
+        <v>2905122</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
+        <v>73000</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>0</v>
+        <v>351100</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>0</v>
+        <v>2637022</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>雑収入</t>
+          <t>会費収入</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
@@ -668,35 +668,35 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>行事費</t>
+          <t>入会金収入</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>301100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>301100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>交際費</t>
+          <t>預貯金利子</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
@@ -715,7 +715,7 @@
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>旅費</t>
+          <t>雑収入</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
@@ -734,7 +734,7 @@
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>会議費</t>
+          <t>++ 収入計 ++</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
@@ -744,48 +744,162 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>通信費</t>
+          <t>行事費</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>301100</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>301100</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
+          <t>交際費</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>旅費</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>会議費</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>通信費</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
           <t>事務費</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
+      <c r="B22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>++ 支出計 ++</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>301100</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>** 収支 **</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>-301100</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>-268100</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -923,25 +1037,25 @@
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>会費収入</t>
+          <t>普通預金</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>正会員</t>
+          <t>計</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>1776666</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>20000</v>
+        <v>340000</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>20000</v>
+        <v>1454666</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -952,7 +1066,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>準会員</t>
+          <t>正会員</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
@@ -962,58 +1076,130 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>行事費</t>
+          <t>会費収入</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>B事業</t>
+          <t>準会員</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>301100</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>301100</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="4" t="inlineStr">
         <is>
+          <t>会費収入</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>計</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>B事業</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>301100</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>C事業</t>
         </is>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0</v>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>行事費</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>計</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
   </sheetData>

--- a/残高試算表.xlsx
+++ b/残高試算表.xlsx
@@ -61,13 +61,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -470,436 +473,440 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～　2022年3月31日</t>
+      <c r="B2" s="2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>勘定科目名</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>期首残高</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>期末残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>123456</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>60000</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>1100</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>182356</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>1776666</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>340000</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1454666</v>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1741666</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>ゆうちょ定期</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>1000000</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>前払金</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>++ 資産計 ++</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>2910122</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>78000</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>351100</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2637022</v>
+      <c r="C8" s="5" t="n">
+        <v>75000</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2924022</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>前受金</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>++ 負債計 ++</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>5000</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>** 純資産 **</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>2905122</v>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>73000</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>351100</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>2637022</v>
+      <c r="C11" s="5" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>61100</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2924022</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>23000</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>23000</v>
+      <c r="B12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="n">
+      <c r="B13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>10000</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>預貯金利子</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="n">
+      <c r="B14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>雑収入</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="n">
+      <c r="B15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>++ 収入計 ++</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>33000</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>33000</v>
+      <c r="B16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>301100</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>301100</v>
+      <c r="B17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>11100</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>交際費</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="B18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>旅費</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="n">
+      <c r="B19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>会議費</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="B20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>通信費</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="n">
+      <c r="B21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>事務費</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="B22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>++ 支出計 ++</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>301100</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>301100</v>
+      <c r="B23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>11100</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>** 収支 **</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>-301100</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>33000</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>-268100</v>
+      <c r="B24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-11100</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>18900</v>
       </c>
     </row>
   </sheetData>
@@ -948,258 +955,262 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>2021年4月1日　～　2022年3月31日</t>
+      <c r="B2" s="2">
+        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
+        <v/>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>(単位:円)</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>勘定科目名</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>補助科目名</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>期首残高</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>期末残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>789012</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>754012</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>A銀行</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>987654</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>290000</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>700654</v>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>987654</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>計</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>1776666</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>18000</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>340000</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1454666</v>
+      <c r="D6" s="5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1741666</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>20000</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>準会員</t>
         </is>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3000</v>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>計</t>
         </is>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>23000</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>23000</v>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>301100</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>301100</v>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11100</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>C事業</t>
         </is>
       </c>
-      <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>計</t>
         </is>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>301100</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>301100</v>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11100</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11100</v>
       </c>
     </row>
   </sheetData>

--- a/残高試算表.xlsx
+++ b/残高試算表.xlsx
@@ -61,16 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -473,440 +470,436 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～　2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>勘定科目名</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>期首残高</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>期末残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>現金</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>123456</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <v>60000</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
         <v>182356</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>1776666</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>1741666</v>
+      <c r="C5" s="4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1454666</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ定期</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>1000000</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>前払金</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>++ 資産計 ++</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>2910122</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>61100</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>2924022</v>
+      <c r="C8" s="4" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>351100</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2637022</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>前受金</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>++ 負債計 ++</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="4" t="n">
         <v>5000</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>** 純資産 **</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>2905122</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>61100</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2924022</v>
+      <c r="C11" s="4" t="n">
+        <v>73000</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>351100</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2637022</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>20000</v>
+      <c r="B12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>23000</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>入会金収入</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="n">
+      <c r="B13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="4" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>預貯金利子</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="n">
+      <c r="B14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>雑収入</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="n">
+      <c r="B15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>++ 収入計 ++</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>30000</v>
+      <c r="B16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>33000</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>11100</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>11100</v>
+      <c r="B17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>交際費</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="n">
+      <c r="B18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>旅費</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="n">
+      <c r="B19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>会議費</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="n">
+      <c r="B20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>通信費</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="n">
+      <c r="B21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>事務費</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="n">
+      <c r="B22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>++ 支出計 ++</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>11100</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>11100</v>
+      <c r="B23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>** 収支 **</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>-11100</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>30000</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>18900</v>
+      <c r="B24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>-301100</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>-268100</v>
       </c>
     </row>
   </sheetData>
@@ -955,262 +948,258 @@
           <t>すいとちょう会</t>
         </is>
       </c>
-      <c r="B2" s="2">
-        <f>CONCATENATE(TEXT(44287,"ggge年mm月dd日"),"～" ,TEXT(44651,"ggge年mm月dd日"))</f>
-        <v/>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>(単位:円)</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2021年4月1日　～　2022年3月31日</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>勘定科目名</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>補助科目名</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>期首残高</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>借方金額</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>貸方金額</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>期末残高</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>ゆうちょ</t>
         </is>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <v>789012</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="4" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <v>754012</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>A銀行</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="4" t="n">
         <v>987654</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>987654</v>
+      <c r="D5" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>290000</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>700654</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>普通預金</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>計</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="4" t="n">
         <v>1776666</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>1741666</v>
+      <c r="D6" s="4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>340000</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1454666</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>正会員</t>
         </is>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>20000</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>20000</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>準会員</t>
         </is>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>会費収入</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>計</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>20000</v>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>23000</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>23000</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>B事業</t>
         </is>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>11100</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>11100</v>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>C事業</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>行事費</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>計</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>11100</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>11100</v>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>301100</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>301100</v>
       </c>
     </row>
   </sheetData>

--- a/残高試算表.xlsx
+++ b/残高試算表.xlsx
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>計</t>
+          <t>【合計】</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
-          <t>計</t>
+          <t>【合計】</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>計</t>
+          <t>【合計】</t>
         </is>
       </c>
       <c r="C12" s="5" t="n">
